--- a/Templates Converted/listAlerts.211207.xlsx
+++ b/Templates Converted/listAlerts.211207.xlsx
@@ -743,7 +743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -872,6 +872,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -885,7 +922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1014,6 +1051,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1027,7 +1101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView zoomScale="81" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
@@ -1167,340 +1241,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dateTime</t>
+          <t>listAlerts.211207Request</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>The date and time of the API Request</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>schema</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>listAlerts.211207Request</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>YYYY-MM-DDTHH:MM:SS[.M{1,6}]</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2019-06-21T23:20:50.000001; 2024-11-08T14:29:00.012345; 9999-12-31T12:55:45.000001</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>searchCriteria</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>settlementBIC</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>searchCriteria</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>The STEP2 Settlement BIC owning liquidity position in CGS</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Bic11Only</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>4!c2!a2!c3!c</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>IPSDID21XXX; TESBIC11XXX; TESBIC99XXX</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>dateTimeFrom</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>searchCriteria</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>The lowest value of date and time at which the alert was issued</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>YYYY-MM-DDTHH:MM:SS[.M{1,6}]</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>2019-06-21T23:20:50.000001; 2024-11-08T14:29:00.012345; 9999-12-31T12:55:45.000001</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>dateTimeTo</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>searchCriteria</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>The highest value of date and time at which the alert was issued</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>YYYY-MM-DDTHH:MM:SS[.M{1,6}]</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>2019-06-21T23:20:50.000001; 2024-11-08T14:29:00.012345; 9999-12-31T12:55:45.000001</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>eventDescription</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>searchCriteria</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>The description of the alert</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>EventDescription</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>SETTLEMENT BIC INPART001 IS NOT PRESENT; OPERATION NOT ALLOWED; SAMPLE EVENT DESCRIPTION</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>offset</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Indicator used to manage pagination</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>AAaa88ss2345fggGGDDaaaHH; AAaa88ss2345fggAABBaaaCC; AAaa11ss2345fgg1122aaaLM</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1 D3:D1048576">
@@ -1583,7 +1351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1720,330 +1488,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dateTime</t>
+          <t>listAlerts.211207Response</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>The date and time of the API Response creation</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>schema</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>listAlerts.211207Response</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>YYYY-MM-DDTHH:MM:SS[.M{1,6}]</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2019-06-21T23:20:50.000001; 2024-11-08T14:29:00.012345; 9999-12-31T12:55:45.000001</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>alerts</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>List of alerts matching search criteria</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>array</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>alerts</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>dateTime</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>alerts</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>The Date and Time at which the alert was issued</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>YYYY-MM-DDTHH:MM:SS[.M{1,6}]</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>2019-06-21T23:20:50.000001; 2024-11-08T14:29:00.012345; 9999-12-31T12:55:45.000001</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>eventType</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>alerts</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>The type of event</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>EventType</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>SEC,FTL,ERR,WRN,NOR</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>WRN; SEC; ERR</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>eventDescription</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>alerts</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>The description of the alert</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>schema</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>EventDescription</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>SETTLEMENT BIC INPART001 IS NOT PRESENT; OPERATION NOT ALLOWED; SAMPLE EVENT DESCRIPTION</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>endOfList</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Whether the provided list contains all relevant records. Possible values:
-true= the list is complete
-false= the list is not complete</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>boolean</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>true; false</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>offset</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Provided only if endOfList is set to false. It must be used in the subsequent listAlerts Request to get the next portion of the list</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>AAaa88ss2345fggGGDDaaaHH; AAaa88ss2345fggAABBaaaCC; AAaa11ss2345fgg1122aaaLM</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2058,7 +1530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2187,6 +1659,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>listAlerts.211207Response</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>listAlerts.211207Response</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -2200,7 +1709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2337,173 +1846,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dateTime</t>
+          <t>errorResponse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>The date and time of the API Response creation</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>schema</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>errorResponse</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>YYYY-MM-DDTHH:MM:SS[.M{1,6}]</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2019-06-21T23:20:50.000001; 2024-11-08T14:29:00.012345; 9999-12-31T12:55:45.000001</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>errorCode</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>The relevant error code</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>AX01; R01, XT92</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>errorCodeDescription</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>The description of the error</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>255</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Transaction rejected; File rejected; Schema error</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>requestId</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>The univocal reference per senderBIC and date assigned by the system to the API request</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>REQID000011112222333445661234567890; REQID000011112222333445661234567891; REQID000011112222333445661234567892</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2518,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2647,6 +2017,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -2660,7 +2067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2789,6 +2196,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -2802,7 +2246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2931,6 +2375,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
